--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AL$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -969,15 +982,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,46 +1026,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1068,14 +1046,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,6 +1085,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1165,7 +1150,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,55 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,31 +1263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,6 +1299,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1359,7 +1323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,6 +1402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,21 +1458,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1495,6 +1486,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,161 +1559,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,7 +1757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1760,7 +1766,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1769,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1781,73 +1787,73 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="常规 3 2 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="41"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="常规 3 3" xfId="45"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3 2 2" xfId="49"/>
+    <cellStyle name="常规 3 2" xfId="50"/>
+    <cellStyle name="常规 3 3" xfId="51"/>
+    <cellStyle name="常规 2 2" xfId="52"/>
     <cellStyle name="常规 2" xfId="53"/>
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 4" xfId="55"/>
@@ -2134,11 +2140,11 @@
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="AN5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2806,7 +2812,7 @@
         <v>105</v>
       </c>
       <c r="P6" s="17">
-        <v>20300</v>
+        <v>15010</v>
       </c>
       <c r="Q6" s="17">
         <v>400001</v>

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -2144,7 +2144,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2812,7 +2812,7 @@
         <v>105</v>
       </c>
       <c r="P6" s="17">
-        <v>15010</v>
+        <v>15040</v>
       </c>
       <c r="Q6" s="17">
         <v>400001</v>

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -2144,7 +2144,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2812,7 +2812,7 @@
         <v>105</v>
       </c>
       <c r="P6" s="17">
-        <v>15040</v>
+        <v>90300</v>
       </c>
       <c r="Q6" s="17">
         <v>400001</v>

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AL$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -982,13 +969,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1033,6 +1020,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1046,6 +1061,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,21 +1108,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,28 +1158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,13 +1226,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,19 +1292,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,18 +1340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1323,31 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,19 +1376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,12 +1395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,6 +1445,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1486,21 +1488,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,151 +1549,151 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1757,7 +1744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1766,7 +1753,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1775,7 +1762,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1802,58 +1789,58 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="常规 3 2 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3 2 2" xfId="49"/>
-    <cellStyle name="常规 3 2" xfId="50"/>
-    <cellStyle name="常规 3 3" xfId="51"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="45"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
     <cellStyle name="常规 2" xfId="53"/>
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 4" xfId="55"/>

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -696,7 +696,7 @@
     <t>Bot</t>
   </si>
   <si>
-    <t>test</t>
+    <t>shuangdao_jianshi</t>
   </si>
   <si>
     <t>test_ui</t>
@@ -971,11 +971,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1546,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,10 +1555,10 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,7 +1567,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1744,7 +1744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1753,7 +1753,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2127,11 +2127,11 @@
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AL$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -681,10 +694,10 @@
     <t>qianshuiting_ui</t>
   </si>
   <si>
-    <t>2|3|0|7|6|8|5|1</t>
-  </si>
-  <si>
-    <t>1|1|1|2|2|1|1|1</t>
+    <t>2|3|0|7|6|5|1</t>
+  </si>
+  <si>
+    <t>1|1|1|2|2|1|1</t>
   </si>
   <si>
     <t>336|42|741|400|12000|2|12.5|1000</t>
@@ -969,11 +982,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
@@ -1020,34 +1033,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1061,14 +1046,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,6 +1085,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1158,7 +1150,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,55 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,31 +1263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,6 +1299,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1352,7 +1323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,6 +1402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,21 +1458,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1488,6 +1486,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,154 +1559,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1762,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1789,58 +1802,58 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="常规 3 2 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="41"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="常规 3 3" xfId="45"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3 2 2" xfId="49"/>
+    <cellStyle name="常规 3 2" xfId="50"/>
+    <cellStyle name="常规 3 3" xfId="51"/>
+    <cellStyle name="常规 2 2" xfId="52"/>
     <cellStyle name="常规 2" xfId="53"/>
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 4" xfId="55"/>
@@ -2127,11 +2140,11 @@
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="AJ5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3030,7 +3043,7 @@
       <c r="AL10" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AL10">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:AL10" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="N5">

--- a/Developer/配置表/Excel/player.xlsx
+++ b/Developer/配置表/Excel/player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$AL$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -694,13 +681,13 @@
     <t>qianshuiting_ui</t>
   </si>
   <si>
-    <t>2|3|0|7|6|5|1</t>
-  </si>
-  <si>
-    <t>1|1|1|2|2|1|1</t>
-  </si>
-  <si>
-    <t>336|42|741|400|12000|2|12.5|1000</t>
+    <t>2|3|0|7|6|8|5|1</t>
+  </si>
+  <si>
+    <t>1|1|1|2|2|1|1|1</t>
+  </si>
+  <si>
+    <t>336|42|741|400|12000|1|12.5|1000</t>
   </si>
   <si>
     <t>0|0|0|0|0|0|0|0</t>
@@ -982,12 +969,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
@@ -1033,6 +1020,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1046,6 +1061,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,21 +1108,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,39 +1158,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1239,13 +1226,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,19 +1292,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,18 +1340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1323,31 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,19 +1376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,12 +1395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,6 +1445,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1486,21 +1488,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1559,154 +1546,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1775,7 +1762,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1802,58 +1789,58 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="常规 3 2 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3 2 2" xfId="49"/>
-    <cellStyle name="常规 3 2" xfId="50"/>
-    <cellStyle name="常规 3 3" xfId="51"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="45"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="48" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
     <cellStyle name="常规 2" xfId="53"/>
     <cellStyle name="常规 3" xfId="54"/>
     <cellStyle name="常规 4" xfId="55"/>
@@ -2140,11 +2127,11 @@
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="AJ5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK17" sqref="AK17"/>
+      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3043,7 +3030,7 @@
       <c r="AL10" s="23"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:AL10" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A4:AL10">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="N5">
